--- a/Projects/Variation in yolk hormones/Egg data sheet.xlsx
+++ b/Projects/Variation in yolk hormones/Egg data sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U1115575\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U1115575\Documents\lampro_cort_temp\Projects\Variation in yolk hormones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862636AC-79F7-4A38-AB41-59654894DFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3324DFD7-6A57-4508-A237-918A597BCF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{43574014-E1CD-4473-B3CB-3B7237BCA558}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>SampleID</t>
   </si>
@@ -75,13 +75,16 @@
   </si>
   <si>
     <t>Observer</t>
+  </si>
+  <si>
+    <t>Project</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +99,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -105,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -128,14 +138,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235D3947-7A13-494B-A370-8FDA7D6CAEBE}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -530,22 +586,38 @@
     <row r="14" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="17" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="33" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="34" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="35" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -555,6 +627,9 @@
     <row r="39" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="40" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A19:M19"/>
+  </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
